--- a/static/formato_materiales_importacion.xlsx
+++ b/static/formato_materiales_importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\OneDrive\Escritorio\APP\gz_services\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA837AE1-20EC-4702-913C-266DE38F0C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF07FE4-5884-40ED-AFEA-81F8E97674A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nombre</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>descripcion</t>
+  </si>
+  <si>
+    <t>valor unitario</t>
   </si>
 </sst>
 </file>
@@ -413,15 +416,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,6 +458,9 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
